--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_13-44.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_13-44.xlsx
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>0:19</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 50GM</t>
   </si>
   <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
@@ -1571,13 +1574,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>73.319999999999993</v>
+        <v>62</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
@@ -1597,17 +1600,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>45.5</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="M34" s="9"/>
       <c r="N34" s="10">
-        <v>0.33000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1615,7 +1618,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1623,17 +1626,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>116</v>
+        <v>45.5</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1655,11 +1658,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1675,17 +1678,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1693,7 +1696,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1701,17 +1704,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1727,13 +1730,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="10">
@@ -1745,7 +1748,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1753,17 +1756,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1771,7 +1774,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1779,17 +1782,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M41" s="9"/>
       <c r="N41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1797,7 +1800,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1805,13 +1808,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="10">
@@ -1819,37 +1822,63 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
-      <c r="K43" s="11">
-        <v>1952.5899999999999</v>
-      </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" ht="17.25" customHeight="1">
-      <c t="s" r="A44" s="12">
+      <c r="A43" s="6">
+        <v>40</v>
+      </c>
+      <c t="s" r="B43" s="7">
         <v>71</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c t="s" r="F44" s="13">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c t="s" r="H43" s="8">
+        <v>66</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9">
+        <v>27</v>
+      </c>
+      <c r="M43" s="9"/>
+      <c r="N43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="K44" s="11">
+        <v>2014.5899999999999</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="12">
         <v>72</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c t="s" r="I44" s="15">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c t="s" r="F45" s="13">
         <v>73</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c t="s" r="I45" s="15">
+        <v>74</v>
+      </c>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="131">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1974,10 +2003,13 @@
     <mergeCell ref="B42:G42"/>
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="I45:N45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
